--- a/ATYR.xlsx
+++ b/ATYR.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697408EF-38AD-4B24-AF5C-2D4F6882C2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ACD076-1E83-46DF-AF22-3C9A8FCF3CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34305" yWindow="540" windowWidth="24255" windowHeight="19950" xr2:uid="{4F5290BC-A608-45DC-93A1-FEEAC12DD2C2}"/>
+    <workbookView xWindow="36620" yWindow="2680" windowWidth="31230" windowHeight="17430" activeTab="1" xr2:uid="{4F5290BC-A608-45DC-93A1-FEEAC12DD2C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="efzofitimod" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Price</t>
   </si>
@@ -56,9 +57,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q224</t>
-  </si>
-  <si>
     <t>efzofitimod</t>
   </si>
   <si>
@@ -66,13 +64,118 @@
   </si>
   <si>
     <t>sarcoidosis</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>Phase III "EFZO-FIT" n=268 pulmonary sarcoidosis</t>
+  </si>
+  <si>
+    <t>Efzofitimod for the Treatment of Pulmonary Sarcoidosis. Culver et al. Chest 2023.</t>
+  </si>
+  <si>
+    <t>MOA</t>
+  </si>
+  <si>
+    <t>1mg/kg, 3mg/kg, 5mg/kg q4w or placebo</t>
+  </si>
+  <si>
+    <t>Phase Ib n=37 pulmonary sarcoidosis 24 weeks - NCT03824392</t>
+  </si>
+  <si>
+    <t>steroid taper in protocol?</t>
+  </si>
+  <si>
+    <t>pulmonary sarcoidosis. Lung granulomas. Dyspnea, cough, fatigue.</t>
+  </si>
+  <si>
+    <t>ATYR1923</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>histidyl-tRNA synthetase, neuropilin 2 domain</t>
+  </si>
+  <si>
+    <t>upregulated on surface of activated immune cells??</t>
+  </si>
+  <si>
+    <t>Phase I healthy volunteers</t>
+  </si>
+  <si>
+    <t>7-10 day halflife</t>
+  </si>
+  <si>
+    <t>n=28 completers, n=9 discontinued, n=6 from COVID</t>
+  </si>
+  <si>
+    <t>13.2mg/d (+-4.4mg/d)</t>
+  </si>
+  <si>
+    <t>46% reduction from baseline in steroid use</t>
+  </si>
+  <si>
+    <t>58% reduction from baseline in steroid use, 22% less than placebo</t>
+  </si>
+  <si>
+    <t>9% reduction in steroid use vs. placebo</t>
+  </si>
+  <si>
+    <t>5% reduction in steroid use vs. placebo</t>
+  </si>
+  <si>
+    <t>Mechanism</t>
+  </si>
+  <si>
+    <t>neuropilin</t>
+  </si>
+  <si>
+    <t>n=12 placebo - 1 AE, 2 COVID-19, n=9 week 24 completer. Baseline FVC 77</t>
+  </si>
+  <si>
+    <t>n=8 1mg/kg - 1 AE dropout, 1 investigator decision dropout - n=6 week 24 completer. Baseline FVC 68</t>
+  </si>
+  <si>
+    <t>n=9 5mg/kg - 1 COVID-19 dropout - n=8 week 24 completer. Baseline FVC 84.</t>
+  </si>
+  <si>
+    <t>n=8 3mg/kg - 3 COVID-19 dropouts!!! - n=5 week 24 completer. Baseline FVC 84.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -81,6 +184,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -93,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -101,19 +219,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -129,6 +346,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594179</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>56179</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>7987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F25DB99-75C6-A392-B9A1-E416D6F67770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6664779" y="428625"/>
+          <a:ext cx="11654000" cy="6513562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,64 +714,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B41A59-56FB-43C5-B03F-7B60E4874EBC}">
-  <dimension ref="B2:L7"/>
+  <dimension ref="B2:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.91</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="4"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>75.796198000000004</v>
+        <v>89.004435999999998</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+      <c r="H4" s="4"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="1">
         <f>+K2*K3</f>
-        <v>144.77073818</v>
+        <v>477.06377696000004</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="5"/>
+      <c r="H5" s="4"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="1">
-        <f>71.677+6.805</f>
-        <v>78.481999999999999</v>
+        <f>10.362+65.987</f>
+        <v>76.34899999999999</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -513,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -522,10 +818,200 @@
       </c>
       <c r="K7" s="1">
         <f>+K4-K5+K6</f>
-        <v>66.288738179999996</v>
+        <v>400.71477696000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1">
+        <v>621.95299999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="1">
+        <v>546.92600000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>2005</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3919FB14-A33C-4936-9363-DDB7DE7C3EF3}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{CEE6469D-C525-467A-96CE-D8FDBAF664E1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ATYR.xlsx
+++ b/ATYR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ACD076-1E83-46DF-AF22-3C9A8FCF3CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9CA74F-FFA8-43BD-A53C-73DDABC70E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36620" yWindow="2680" windowWidth="31230" windowHeight="17430" activeTab="1" xr2:uid="{4F5290BC-A608-45DC-93A1-FEEAC12DD2C2}"/>
+    <workbookView xWindow="36470" yWindow="2340" windowWidth="24000" windowHeight="15320" activeTab="1" xr2:uid="{4F5290BC-A608-45DC-93A1-FEEAC12DD2C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Price</t>
   </si>
@@ -144,15 +144,6 @@
     <t>46% reduction from baseline in steroid use</t>
   </si>
   <si>
-    <t>58% reduction from baseline in steroid use, 22% less than placebo</t>
-  </si>
-  <si>
-    <t>9% reduction in steroid use vs. placebo</t>
-  </si>
-  <si>
-    <t>5% reduction in steroid use vs. placebo</t>
-  </si>
-  <si>
     <t>Mechanism</t>
   </si>
   <si>
@@ -169,6 +160,36 @@
   </si>
   <si>
     <t>n=8 3mg/kg - 3 COVID-19 dropouts!!! - n=5 week 24 completer. Baseline FVC 84.</t>
+  </si>
+  <si>
+    <t>Protocol: day 15 steroid taper: 10-25mg/d -&gt; 5mg/d by day 50, maintained until 24 weeks.</t>
+  </si>
+  <si>
+    <t>Baseline, FEV1:</t>
+  </si>
+  <si>
+    <t>placebo: 68.3%, 60.4% 1mg/kg, 77.6% 3mg/kg, 77.3% 5mg/kg.</t>
+  </si>
+  <si>
+    <t>FVC: 77.3%, 68.3%, 83.8%, 83.8%</t>
+  </si>
+  <si>
+    <t>Steroids: 13.3, 11.3, 14.4, 13.9.</t>
+  </si>
+  <si>
+    <t>Duration of Disease: 2.9, 5.3, 4.3, 2.9y.</t>
+  </si>
+  <si>
+    <t>3 tapered to zero steroids and maintained zero.</t>
+  </si>
+  <si>
+    <t>49% reduction from baseline. 9% reduction in steroid use vs. placebo, 2.3% less in adjusted means (AUC)</t>
+  </si>
+  <si>
+    <t>41% reduction from baseline. 5% reduction in steroid use vs. placebo. +1.2% difference in adjusted means (AUC)</t>
+  </si>
+  <si>
+    <t>58% reduction from baseline in steroid use, 22% less than placebo. -12.3% adjusted means (AUC)</t>
   </si>
 </sst>
 </file>
@@ -183,11 +204,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
@@ -197,6 +213,13 @@
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -308,15 +331,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -326,7 +348,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -361,7 +386,7 @@
       <xdr:col>30</xdr:col>
       <xdr:colOff>56179</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>7987</xdr:rowOff>
+      <xdr:rowOff>14337</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -386,6 +411,94 @@
         <a:xfrm>
           <a:off x="6664779" y="428625"/>
           <a:ext cx="11654000" cy="6513562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>99327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80440201-BD30-A968-D00F-8BB67D5E19C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="7289800"/>
+          <a:ext cx="8112125" cy="3763277"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>65570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B59155-32FD-2B20-64F4-B611DF79124D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15706725" y="6673850"/>
+          <a:ext cx="7264400" cy="5139220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -717,7 +830,7 @@
   <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -728,19 +841,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
+      <c r="D2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
@@ -749,16 +862,16 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="H3" s="3"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -770,8 +883,8 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="5"/>
-      <c r="H4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="H4" s="3"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
@@ -781,8 +894,8 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="H5" s="3"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -795,13 +908,13 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -846,16 +959,19 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="efzofitimod!A1" display="efzofitimod" xr:uid="{7AD1D2D8-BEE6-4680-BC8A-3FD31195232C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3919FB14-A33C-4936-9363-DDB7DE7C3EF3}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AI26" sqref="AI26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -865,7 +981,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -881,7 +997,7 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -920,90 +1036,138 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="14"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+      <c r="C14" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="13"/>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="13"/>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="13"/>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="13"/>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C30" s="14" t="s">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ATYR.xlsx
+++ b/ATYR.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9CA74F-FFA8-43BD-A53C-73DDABC70E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A80114-292D-45F3-BB8F-FD44760254FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36470" yWindow="2340" windowWidth="24000" windowHeight="15320" activeTab="1" xr2:uid="{4F5290BC-A608-45DC-93A1-FEEAC12DD2C2}"/>
+    <workbookView xWindow="47480" yWindow="2460" windowWidth="24920" windowHeight="17450" activeTab="1" xr2:uid="{4F5290BC-A608-45DC-93A1-FEEAC12DD2C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="efzofitimod" sheetId="2" r:id="rId2"/>
+    <sheet name="Glossary" sheetId="3" r:id="rId3"/>
+    <sheet name="Papers" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
   <si>
     <t>Price</t>
   </si>
@@ -190,6 +192,111 @@
   </si>
   <si>
     <t>58% reduction from baseline in steroid use, 22% less than placebo. -12.3% adjusted means (AUC)</t>
+  </si>
+  <si>
+    <t>Jo-1</t>
+  </si>
+  <si>
+    <t>anti-synthetase syndrome</t>
+  </si>
+  <si>
+    <t>myositis, ILD, polyarthritis, fever</t>
+  </si>
+  <si>
+    <t>histidyl-transfer RNA synthetase (tRNA synthetase). Anti-Jo-1 autoantibodies can cause ILD. Autoantibodies found in 15-25% of idiopathic inflammatory myopathy patients. 510 amino acids.</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>anti-tRNA synthetase antibodies. 8 known.</t>
+  </si>
+  <si>
+    <t>anti-Ro/SSA</t>
+  </si>
+  <si>
+    <t>Ro52 and Ro60</t>
+  </si>
+  <si>
+    <t>HRS</t>
+  </si>
+  <si>
+    <t>histidyl-tRNA synthetase</t>
+  </si>
+  <si>
+    <t>SSA antigens</t>
+  </si>
+  <si>
+    <t>Ro52</t>
+  </si>
+  <si>
+    <t>related to E3 ligase</t>
+  </si>
+  <si>
+    <t>Ro60</t>
+  </si>
+  <si>
+    <t>RNA quality control</t>
+  </si>
+  <si>
+    <t>Mice immunized with HRS develop other antibodies.</t>
+  </si>
+  <si>
+    <t>Clinical features associated with the presence of anti-Ro52 and anti-Ro60 antibodies in Jo-1 antibody-positive anti-synthetase syndrome. Yamaguchi et al. Front Immunol</t>
+  </si>
+  <si>
+    <t>ASS</t>
+  </si>
+  <si>
+    <t>Anti-synthetase syndrome, rare autoimmune disease with ILD, arthritis and myositis</t>
+  </si>
+  <si>
+    <t>PL12</t>
+  </si>
+  <si>
+    <t>PL7</t>
+  </si>
+  <si>
+    <t>EJ</t>
+  </si>
+  <si>
+    <t>HARS N-terminus iMod domain + Fc</t>
+  </si>
+  <si>
+    <t>Sclerodermatous cGvHD</t>
+  </si>
+  <si>
+    <t>Saccharopolyspora rectivirgula-induced CHP</t>
+  </si>
+  <si>
+    <t>Propionibacterium acnes-induced PF</t>
+  </si>
+  <si>
+    <t>SKG mice</t>
+  </si>
+  <si>
+    <t>ATYR1923 Modules the Inflammatory Response in Experimential Models of Interstitial Lung Disease</t>
+  </si>
+  <si>
+    <t>Granulomas which secret cytokines, including IL-12, IL-23 and TNFalpha.</t>
+  </si>
+  <si>
+    <t>Week 16-28 steroid tapering.</t>
+  </si>
+  <si>
+    <t>PE FVC at week 16.</t>
+  </si>
+  <si>
+    <t>Spontaneous remissions occur in 2/3rds of patients.</t>
+  </si>
+  <si>
+    <t>Phase II infliximab</t>
+  </si>
+  <si>
+    <t>-0.15 p=0.13, 1.15 p=0.54 for golimumab, placebo +2.02 beat both!</t>
+  </si>
+  <si>
+    <t>Phase II ustekinumab vs. golimumab. Judson et al. Eur Respir J 2014. - NCT00955279</t>
   </si>
 </sst>
 </file>
@@ -333,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -351,7 +458,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -423,13 +529,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>206375</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>99327</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -467,14 +573,14 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>65570</xdr:rowOff>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>71921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -499,6 +605,275 @@
         <a:xfrm>
           <a:off x="15706725" y="6673850"/>
           <a:ext cx="7264400" cy="5139220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>310475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>111511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561660</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>157663</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2501D8A-BF6F-1AE5-DF10-A99BED86CD31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962499" y="924621"/>
+          <a:ext cx="3294539" cy="3298591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>102220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>214678</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>124083</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413DDE4F-CE6E-395E-B8F3-5A901A9AEFF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="827696" y="1565818"/>
+          <a:ext cx="3039006" cy="2623814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>146972</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>454833</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>117960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD0C3A8-991B-2FD4-AC7A-3A2B993F8A2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="756572" y="4310743"/>
+          <a:ext cx="4575061" cy="2501931"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>16564</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>34218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>269081</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>158432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F1E9FB-9E86-7100-E2A3-A88626133D50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5532781" y="4341175"/>
+          <a:ext cx="5768735" cy="2112040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101748</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>58314</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>109882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C269A29C-6255-3DC9-341C-E7B6A1DE5DD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714661" y="6899413"/>
+          <a:ext cx="10376088" cy="5634382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>450277</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>71439</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>162997</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72B1D767-ECE3-750A-5C98-E9DCD0E7571A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11594527" y="7026289"/>
+          <a:ext cx="8288912" cy="2971271"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -968,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3919FB14-A33C-4936-9363-DDB7DE7C3EF3}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AI26" sqref="AI26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -980,12 +1355,12 @@
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -993,7 +1368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -1001,7 +1376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -1009,166 +1384,201 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="13" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="13"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C13" s="13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="13"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C14" s="15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C15" s="15" t="s">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C16" s="13"/>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="13"/>
-      <c r="D17" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="13"/>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="13"/>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" s="13"/>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" s="13"/>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" s="13"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E27" s="16" t="s">
-        <v>34</v>
+      <c r="D27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E29" t="s">
-        <v>49</v>
+      <c r="E29" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C40" s="13" t="s">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C42" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1178,4 +1588,174 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDAAADF-A761-4613-B0DC-1010AC485063}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3DD729-8B55-49ED-A009-660656C2BDB8}">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>